--- a/database/industries/folad/kave/product/monthly_seprated.xlsx
+++ b/database/industries/folad/kave/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="87">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3285,20 +3285,20 @@
       <c r="P11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R11" s="13" t="n">
+      <c r="Q11" s="13" t="n">
         <v>86345</v>
       </c>
+      <c r="R11" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="S11" s="13" t="s">
         <v>58</v>
       </c>
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V11" s="13" t="n">
         <v>0</v>
@@ -3327,8 +3327,8 @@
       <c r="AD11" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE11" s="13" t="n">
-        <v>0</v>
+      <c r="AE11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF11" s="13" t="s">
         <v>58</v>
@@ -3357,47 +3357,47 @@
       <c r="AN11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO11" s="13" t="s">
-        <v>58</v>
+      <c r="AO11" s="13" t="n">
+        <v>146160</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>146160</v>
+        <v>151962</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>151962</v>
+        <v>144147</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>144147</v>
+        <v>149696</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>149696</v>
+        <v>120975</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>120975</v>
+        <v>110864</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>110864</v>
+        <v>158068</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>158068</v>
+        <v>147248</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>147248</v>
+        <v>136238</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>136238</v>
+        <v>127206</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>127206</v>
+        <v>76236</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>76236</v>
+        <v>69459</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>69459</v>
+        <v>149009</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>149009</v>
+        <v>181172</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3444,20 +3444,20 @@
       <c r="P12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Q12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R12" s="16" t="n">
+      <c r="Q12" s="16" t="n">
         <v>141948</v>
       </c>
+      <c r="R12" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="S12" s="16" t="s">
         <v>58</v>
       </c>
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V12" s="16" t="n">
         <v>0</v>
@@ -3486,8 +3486,8 @@
       <c r="AD12" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE12" s="16" t="n">
-        <v>0</v>
+      <c r="AE12" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF12" s="16" t="s">
         <v>58</v>
@@ -3516,47 +3516,47 @@
       <c r="AN12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO12" s="16" t="s">
-        <v>58</v>
+      <c r="AO12" s="16" t="n">
+        <v>148737</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>148737</v>
+        <v>179843</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>179843</v>
+        <v>175841</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>175841</v>
+        <v>169364</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>169364</v>
+        <v>164007</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>164007</v>
+        <v>95272</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>95272</v>
+        <v>168680</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>168680</v>
+        <v>158052</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>158052</v>
+        <v>136450</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>136450</v>
+        <v>147403</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>147403</v>
+        <v>87512</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>87512</v>
+        <v>83509</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>83509</v>
+        <v>166980</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>166980</v>
+        <v>179777</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3603,11 +3603,11 @@
       <c r="P13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R13" s="13" t="n">
-        <v>0</v>
+      <c r="Q13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="S13" s="13" t="s">
         <v>58</v>
@@ -3761,10 +3761,10 @@
         <v>0</v>
       </c>
       <c r="Q14" s="18" t="n">
-        <v>0</v>
+        <v>228293</v>
       </c>
       <c r="R14" s="18" t="n">
-        <v>228293</v>
+        <v>0</v>
       </c>
       <c r="S14" s="18" t="n">
         <v>0</v>
@@ -3833,46 +3833,46 @@
         <v>0</v>
       </c>
       <c r="AO14" s="18" t="n">
-        <v>0</v>
+        <v>294897</v>
       </c>
       <c r="AP14" s="18" t="n">
-        <v>294897</v>
+        <v>331805</v>
       </c>
       <c r="AQ14" s="18" t="n">
-        <v>331805</v>
+        <v>319988</v>
       </c>
       <c r="AR14" s="18" t="n">
-        <v>319988</v>
+        <v>319060</v>
       </c>
       <c r="AS14" s="18" t="n">
-        <v>319060</v>
+        <v>284982</v>
       </c>
       <c r="AT14" s="18" t="n">
-        <v>284982</v>
+        <v>206136</v>
       </c>
       <c r="AU14" s="18" t="n">
-        <v>206136</v>
+        <v>326748</v>
       </c>
       <c r="AV14" s="18" t="n">
-        <v>326748</v>
+        <v>305300</v>
       </c>
       <c r="AW14" s="18" t="n">
-        <v>305300</v>
+        <v>272688</v>
       </c>
       <c r="AX14" s="18" t="n">
-        <v>272688</v>
+        <v>274609</v>
       </c>
       <c r="AY14" s="18" t="n">
-        <v>274609</v>
+        <v>163748</v>
       </c>
       <c r="AZ14" s="18" t="n">
-        <v>163748</v>
+        <v>152968</v>
       </c>
       <c r="BA14" s="18" t="n">
-        <v>152968</v>
+        <v>315989</v>
       </c>
       <c r="BB14" s="18" t="n">
-        <v>315989</v>
+        <v>360949</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3976,11 +3976,11 @@
       <c r="P16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R16" s="13" t="n">
-        <v>0</v>
+      <c r="Q16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="S16" s="13" t="s">
         <v>58</v>
@@ -3988,8 +3988,8 @@
       <c r="T16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U16" s="13" t="s">
-        <v>58</v>
+      <c r="U16" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V16" s="13" t="n">
         <v>0</v>
@@ -4018,8 +4018,8 @@
       <c r="AD16" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE16" s="13" t="n">
-        <v>0</v>
+      <c r="AE16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF16" s="13" t="s">
         <v>58</v>
@@ -4048,8 +4048,8 @@
       <c r="AN16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO16" s="13" t="s">
-        <v>58</v>
+      <c r="AO16" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP16" s="13" t="n">
         <v>0</v>
@@ -4135,11 +4135,11 @@
       <c r="P17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R17" s="16" t="n">
-        <v>0</v>
+      <c r="Q17" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="S17" s="16" t="s">
         <v>58</v>
@@ -4147,8 +4147,8 @@
       <c r="T17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="16" t="s">
-        <v>58</v>
+      <c r="U17" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V17" s="16" t="n">
         <v>0</v>
@@ -4177,8 +4177,8 @@
       <c r="AD17" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE17" s="16" t="n">
-        <v>0</v>
+      <c r="AE17" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF17" s="16" t="s">
         <v>58</v>
@@ -4207,11 +4207,11 @@
       <c r="AN17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO17" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP17" s="16" t="n">
-        <v>0</v>
+      <c r="AO17" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ17" s="16" t="s">
         <v>58</v>
@@ -4294,11 +4294,11 @@
       <c r="P18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R18" s="13" t="n">
-        <v>0</v>
+      <c r="Q18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="S18" s="13" t="s">
         <v>58</v>
@@ -4679,8 +4679,8 @@
       <c r="T21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U21" s="13" t="s">
-        <v>58</v>
+      <c r="U21" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V21" s="13" t="n">
         <v>0</v>
@@ -4709,8 +4709,8 @@
       <c r="AD21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE21" s="13" t="n">
-        <v>0</v>
+      <c r="AE21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF21" s="13" t="s">
         <v>58</v>
@@ -4836,8 +4836,8 @@
       <c r="T22" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U22" s="18" t="s">
-        <v>58</v>
+      <c r="U22" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V22" s="18" t="n">
         <v>0</v>
@@ -4982,10 +4982,10 @@
         <v>0</v>
       </c>
       <c r="Q23" s="20" t="n">
-        <v>0</v>
+        <v>228293</v>
       </c>
       <c r="R23" s="20" t="n">
-        <v>228293</v>
+        <v>0</v>
       </c>
       <c r="S23" s="20" t="n">
         <v>0</v>
@@ -5054,46 +5054,46 @@
         <v>0</v>
       </c>
       <c r="AO23" s="20" t="n">
-        <v>0</v>
+        <v>294897</v>
       </c>
       <c r="AP23" s="20" t="n">
-        <v>294897</v>
+        <v>331805</v>
       </c>
       <c r="AQ23" s="20" t="n">
-        <v>331805</v>
+        <v>319988</v>
       </c>
       <c r="AR23" s="20" t="n">
-        <v>319988</v>
+        <v>319060</v>
       </c>
       <c r="AS23" s="20" t="n">
-        <v>319060</v>
+        <v>284982</v>
       </c>
       <c r="AT23" s="20" t="n">
-        <v>284982</v>
+        <v>206136</v>
       </c>
       <c r="AU23" s="20" t="n">
-        <v>206136</v>
+        <v>326748</v>
       </c>
       <c r="AV23" s="20" t="n">
-        <v>326748</v>
+        <v>305300</v>
       </c>
       <c r="AW23" s="20" t="n">
-        <v>305300</v>
+        <v>272688</v>
       </c>
       <c r="AX23" s="20" t="n">
-        <v>272688</v>
+        <v>274609</v>
       </c>
       <c r="AY23" s="20" t="n">
-        <v>274609</v>
+        <v>163748</v>
       </c>
       <c r="AZ23" s="20" t="n">
-        <v>163748</v>
+        <v>152968</v>
       </c>
       <c r="BA23" s="20" t="n">
-        <v>152968</v>
+        <v>315989</v>
       </c>
       <c r="BB23" s="20" t="n">
-        <v>315989</v>
+        <v>360949</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5574,119 +5574,119 @@
       <c r="P30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R30" s="13" t="n">
+      <c r="Q30" s="13" t="n">
         <v>92315</v>
       </c>
+      <c r="R30" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="S30" s="13" t="s">
         <v>58</v>
       </c>
       <c r="T30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U30" s="13" t="s">
-        <v>58</v>
+      <c r="U30" s="13" t="n">
+        <v>28481</v>
       </c>
       <c r="V30" s="13" t="n">
-        <v>28481</v>
+        <v>32643</v>
       </c>
       <c r="W30" s="13" t="n">
-        <v>32643</v>
+        <v>56707</v>
       </c>
       <c r="X30" s="13" t="n">
-        <v>56707</v>
+        <v>57872</v>
       </c>
       <c r="Y30" s="13" t="n">
-        <v>57872</v>
+        <v>56494</v>
       </c>
       <c r="Z30" s="13" t="n">
-        <v>56494</v>
+        <v>29217</v>
       </c>
       <c r="AA30" s="13" t="n">
-        <v>29217</v>
+        <v>59667</v>
       </c>
       <c r="AB30" s="13" t="n">
-        <v>59667</v>
+        <v>57639</v>
       </c>
       <c r="AC30" s="13" t="n">
-        <v>57639</v>
+        <v>46731</v>
       </c>
       <c r="AD30" s="13" t="n">
-        <v>46731</v>
+        <v>45789</v>
       </c>
       <c r="AE30" s="13" t="n">
-        <v>45789</v>
+        <v>55559</v>
       </c>
       <c r="AF30" s="13" t="n">
-        <v>55559</v>
+        <v>43437</v>
       </c>
       <c r="AG30" s="13" t="n">
-        <v>43437</v>
+        <v>4749</v>
       </c>
       <c r="AH30" s="13" t="n">
-        <v>4749</v>
+        <v>10627</v>
       </c>
       <c r="AI30" s="13" t="n">
-        <v>10627</v>
+        <v>39780</v>
       </c>
       <c r="AJ30" s="13" t="n">
-        <v>39780</v>
+        <v>48156</v>
       </c>
       <c r="AK30" s="13" t="n">
-        <v>48156</v>
+        <v>36640</v>
       </c>
       <c r="AL30" s="13" t="n">
-        <v>36640</v>
+        <v>48937</v>
       </c>
       <c r="AM30" s="13" t="n">
-        <v>48937</v>
+        <v>51113</v>
       </c>
       <c r="AN30" s="13" t="n">
-        <v>51113</v>
+        <v>33162</v>
       </c>
       <c r="AO30" s="13" t="n">
-        <v>33162</v>
+        <v>63936</v>
       </c>
       <c r="AP30" s="13" t="n">
-        <v>63936</v>
+        <v>61577</v>
       </c>
       <c r="AQ30" s="13" t="n">
-        <v>61577</v>
+        <v>18582</v>
       </c>
       <c r="AR30" s="13" t="n">
-        <v>18582</v>
+        <v>65085</v>
       </c>
       <c r="AS30" s="13" t="n">
-        <v>65085</v>
+        <v>78987</v>
       </c>
       <c r="AT30" s="13" t="n">
-        <v>78987</v>
+        <v>52716</v>
       </c>
       <c r="AU30" s="13" t="n">
-        <v>52716</v>
+        <v>47215</v>
       </c>
       <c r="AV30" s="13" t="n">
-        <v>47215</v>
+        <v>50620</v>
       </c>
       <c r="AW30" s="13" t="n">
-        <v>50620</v>
+        <v>42009</v>
       </c>
       <c r="AX30" s="13" t="n">
-        <v>42009</v>
+        <v>27942</v>
       </c>
       <c r="AY30" s="13" t="n">
-        <v>27942</v>
+        <v>58424</v>
       </c>
       <c r="AZ30" s="13" t="n">
-        <v>58424</v>
+        <v>51627</v>
       </c>
       <c r="BA30" s="13" t="n">
-        <v>51627</v>
+        <v>68175</v>
       </c>
       <c r="BB30" s="13" t="n">
-        <v>68175</v>
+        <v>58229</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5733,11 +5733,11 @@
       <c r="P31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Q31" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R31" s="16" t="n">
-        <v>0</v>
+      <c r="Q31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="S31" s="16" t="s">
         <v>58</v>
@@ -5745,17 +5745,17 @@
       <c r="T31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="16" t="s">
-        <v>58</v>
+      <c r="U31" s="16" t="n">
+        <v>12956</v>
       </c>
       <c r="V31" s="16" t="n">
-        <v>12956</v>
+        <v>6485</v>
       </c>
       <c r="W31" s="16" t="n">
-        <v>6485</v>
+        <v>1263</v>
       </c>
       <c r="X31" s="16" t="n">
-        <v>1263</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="16" t="n">
         <v>0</v>
@@ -5775,8 +5775,8 @@
       <c r="AD31" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE31" s="16" t="n">
-        <v>0</v>
+      <c r="AE31" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF31" s="16" t="s">
         <v>58</v>
@@ -5784,12 +5784,12 @@
       <c r="AG31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH31" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI31" s="16" t="n">
+      <c r="AH31" s="16" t="n">
         <v>2998</v>
       </c>
+      <c r="AI31" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ31" s="16" t="s">
         <v>58</v>
       </c>
@@ -5805,8 +5805,8 @@
       <c r="AN31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO31" s="16" t="s">
-        <v>58</v>
+      <c r="AO31" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP31" s="16" t="n">
         <v>0</v>
@@ -5892,11 +5892,11 @@
       <c r="P32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R32" s="13" t="n">
+      <c r="Q32" s="13" t="n">
         <v>2051</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="S32" s="13" t="s">
         <v>58</v>
@@ -6050,10 +6050,10 @@
         <v>0</v>
       </c>
       <c r="Q33" s="18" t="n">
-        <v>0</v>
+        <v>94366</v>
       </c>
       <c r="R33" s="18" t="n">
-        <v>94366</v>
+        <v>0</v>
       </c>
       <c r="S33" s="18" t="n">
         <v>0</v>
@@ -6062,106 +6062,106 @@
         <v>0</v>
       </c>
       <c r="U33" s="18" t="n">
-        <v>0</v>
+        <v>41437</v>
       </c>
       <c r="V33" s="18" t="n">
-        <v>41437</v>
+        <v>39128</v>
       </c>
       <c r="W33" s="18" t="n">
-        <v>39128</v>
+        <v>57970</v>
       </c>
       <c r="X33" s="18" t="n">
-        <v>57970</v>
+        <v>57872</v>
       </c>
       <c r="Y33" s="18" t="n">
-        <v>57872</v>
+        <v>56494</v>
       </c>
       <c r="Z33" s="18" t="n">
-        <v>56494</v>
+        <v>29217</v>
       </c>
       <c r="AA33" s="18" t="n">
-        <v>29217</v>
+        <v>59667</v>
       </c>
       <c r="AB33" s="18" t="n">
-        <v>59667</v>
+        <v>57639</v>
       </c>
       <c r="AC33" s="18" t="n">
-        <v>57639</v>
+        <v>46731</v>
       </c>
       <c r="AD33" s="18" t="n">
-        <v>46731</v>
+        <v>45789</v>
       </c>
       <c r="AE33" s="18" t="n">
-        <v>45789</v>
+        <v>55559</v>
       </c>
       <c r="AF33" s="18" t="n">
-        <v>55559</v>
+        <v>43437</v>
       </c>
       <c r="AG33" s="18" t="n">
-        <v>43437</v>
+        <v>4749</v>
       </c>
       <c r="AH33" s="18" t="n">
-        <v>4749</v>
+        <v>13625</v>
       </c>
       <c r="AI33" s="18" t="n">
-        <v>13625</v>
+        <v>39780</v>
       </c>
       <c r="AJ33" s="18" t="n">
-        <v>39780</v>
+        <v>48156</v>
       </c>
       <c r="AK33" s="18" t="n">
-        <v>48156</v>
+        <v>36640</v>
       </c>
       <c r="AL33" s="18" t="n">
-        <v>36640</v>
+        <v>48937</v>
       </c>
       <c r="AM33" s="18" t="n">
-        <v>48937</v>
+        <v>51113</v>
       </c>
       <c r="AN33" s="18" t="n">
-        <v>51113</v>
+        <v>33162</v>
       </c>
       <c r="AO33" s="18" t="n">
-        <v>33162</v>
+        <v>63936</v>
       </c>
       <c r="AP33" s="18" t="n">
-        <v>63936</v>
+        <v>61577</v>
       </c>
       <c r="AQ33" s="18" t="n">
-        <v>61577</v>
+        <v>18582</v>
       </c>
       <c r="AR33" s="18" t="n">
-        <v>18582</v>
+        <v>65085</v>
       </c>
       <c r="AS33" s="18" t="n">
-        <v>65085</v>
+        <v>78987</v>
       </c>
       <c r="AT33" s="18" t="n">
-        <v>78987</v>
+        <v>52716</v>
       </c>
       <c r="AU33" s="18" t="n">
-        <v>52716</v>
+        <v>47215</v>
       </c>
       <c r="AV33" s="18" t="n">
-        <v>47215</v>
+        <v>50620</v>
       </c>
       <c r="AW33" s="18" t="n">
-        <v>50620</v>
+        <v>42009</v>
       </c>
       <c r="AX33" s="18" t="n">
-        <v>42009</v>
+        <v>27942</v>
       </c>
       <c r="AY33" s="18" t="n">
-        <v>27942</v>
+        <v>58424</v>
       </c>
       <c r="AZ33" s="18" t="n">
-        <v>58424</v>
+        <v>51627</v>
       </c>
       <c r="BA33" s="18" t="n">
-        <v>51627</v>
+        <v>68175</v>
       </c>
       <c r="BB33" s="18" t="n">
-        <v>68175</v>
+        <v>58229</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6265,11 +6265,11 @@
       <c r="P35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R35" s="13" t="n">
-        <v>0</v>
+      <c r="Q35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="S35" s="13" t="s">
         <v>58</v>
@@ -6277,107 +6277,107 @@
       <c r="T35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U35" s="13" t="s">
-        <v>58</v>
+      <c r="U35" s="13" t="n">
+        <v>67483</v>
       </c>
       <c r="V35" s="13" t="n">
-        <v>67483</v>
+        <v>65577</v>
       </c>
       <c r="W35" s="13" t="n">
-        <v>65577</v>
+        <v>70997</v>
       </c>
       <c r="X35" s="13" t="n">
-        <v>70997</v>
+        <v>53947</v>
       </c>
       <c r="Y35" s="13" t="n">
-        <v>53947</v>
+        <v>79876</v>
       </c>
       <c r="Z35" s="13" t="n">
-        <v>79876</v>
+        <v>94898</v>
       </c>
       <c r="AA35" s="13" t="n">
-        <v>94898</v>
+        <v>99634</v>
       </c>
       <c r="AB35" s="13" t="n">
-        <v>99634</v>
+        <v>102921</v>
       </c>
       <c r="AC35" s="13" t="n">
-        <v>102921</v>
+        <v>92711</v>
       </c>
       <c r="AD35" s="13" t="n">
-        <v>92711</v>
+        <v>50015</v>
       </c>
       <c r="AE35" s="13" t="n">
-        <v>50015</v>
+        <v>126039</v>
       </c>
       <c r="AF35" s="13" t="n">
-        <v>126039</v>
+        <v>93337</v>
       </c>
       <c r="AG35" s="13" t="n">
-        <v>93337</v>
+        <v>28924</v>
       </c>
       <c r="AH35" s="13" t="n">
-        <v>28924</v>
+        <v>46072</v>
       </c>
       <c r="AI35" s="13" t="n">
-        <v>46072</v>
+        <v>59323</v>
       </c>
       <c r="AJ35" s="13" t="n">
-        <v>59323</v>
+        <v>100137</v>
       </c>
       <c r="AK35" s="13" t="n">
-        <v>100137</v>
+        <v>87708</v>
       </c>
       <c r="AL35" s="13" t="n">
-        <v>87708</v>
+        <v>69735</v>
       </c>
       <c r="AM35" s="13" t="n">
-        <v>69735</v>
+        <v>76524</v>
       </c>
       <c r="AN35" s="13" t="n">
-        <v>76524</v>
+        <v>118906</v>
       </c>
       <c r="AO35" s="13" t="n">
-        <v>118906</v>
+        <v>77078</v>
       </c>
       <c r="AP35" s="13" t="n">
-        <v>77078</v>
+        <v>99092</v>
       </c>
       <c r="AQ35" s="13" t="n">
-        <v>99092</v>
+        <v>70017</v>
       </c>
       <c r="AR35" s="13" t="n">
-        <v>70017</v>
+        <v>105198</v>
       </c>
       <c r="AS35" s="13" t="n">
-        <v>105198</v>
+        <v>50176</v>
       </c>
       <c r="AT35" s="13" t="n">
-        <v>50176</v>
+        <v>69126</v>
       </c>
       <c r="AU35" s="13" t="n">
-        <v>69126</v>
+        <v>97065</v>
       </c>
       <c r="AV35" s="13" t="n">
-        <v>97065</v>
+        <v>121399</v>
       </c>
       <c r="AW35" s="13" t="n">
-        <v>121399</v>
+        <v>81085</v>
       </c>
       <c r="AX35" s="13" t="n">
-        <v>81085</v>
+        <v>94393</v>
       </c>
       <c r="AY35" s="13" t="n">
-        <v>94393</v>
+        <v>43767</v>
       </c>
       <c r="AZ35" s="13" t="n">
-        <v>43767</v>
+        <v>14999</v>
       </c>
       <c r="BA35" s="13" t="n">
-        <v>14999</v>
+        <v>93561</v>
       </c>
       <c r="BB35" s="13" t="n">
-        <v>93561</v>
+        <v>96142</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6424,11 +6424,11 @@
       <c r="P36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Q36" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R36" s="16" t="n">
-        <v>0</v>
+      <c r="Q36" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="S36" s="16" t="s">
         <v>58</v>
@@ -6436,8 +6436,8 @@
       <c r="T36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U36" s="16" t="s">
-        <v>58</v>
+      <c r="U36" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V36" s="16" t="n">
         <v>0</v>
@@ -6449,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="Y36" s="16" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="Z36" s="16" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="16" t="n">
         <v>0</v>
@@ -6466,8 +6466,8 @@
       <c r="AD36" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE36" s="16" t="n">
-        <v>0</v>
+      <c r="AE36" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF36" s="16" t="s">
         <v>58</v>
@@ -6496,11 +6496,11 @@
       <c r="AN36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO36" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP36" s="16" t="n">
-        <v>0</v>
+      <c r="AO36" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ36" s="16" t="s">
         <v>58</v>
@@ -6583,11 +6583,11 @@
       <c r="P37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R37" s="13" t="n">
-        <v>0</v>
+      <c r="Q37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="S37" s="13" t="s">
         <v>58</v>
@@ -6753,106 +6753,106 @@
         <v>0</v>
       </c>
       <c r="U38" s="18" t="n">
-        <v>0</v>
+        <v>67483</v>
       </c>
       <c r="V38" s="18" t="n">
-        <v>67483</v>
+        <v>65577</v>
       </c>
       <c r="W38" s="18" t="n">
-        <v>65577</v>
+        <v>70997</v>
       </c>
       <c r="X38" s="18" t="n">
-        <v>70997</v>
+        <v>53947</v>
       </c>
       <c r="Y38" s="18" t="n">
-        <v>53947</v>
+        <v>84876</v>
       </c>
       <c r="Z38" s="18" t="n">
-        <v>84876</v>
+        <v>94898</v>
       </c>
       <c r="AA38" s="18" t="n">
-        <v>94898</v>
+        <v>99634</v>
       </c>
       <c r="AB38" s="18" t="n">
-        <v>99634</v>
+        <v>102921</v>
       </c>
       <c r="AC38" s="18" t="n">
-        <v>102921</v>
+        <v>92711</v>
       </c>
       <c r="AD38" s="18" t="n">
-        <v>92711</v>
+        <v>50015</v>
       </c>
       <c r="AE38" s="18" t="n">
-        <v>50015</v>
+        <v>126039</v>
       </c>
       <c r="AF38" s="18" t="n">
-        <v>126039</v>
+        <v>93337</v>
       </c>
       <c r="AG38" s="18" t="n">
-        <v>93337</v>
+        <v>28924</v>
       </c>
       <c r="AH38" s="18" t="n">
-        <v>28924</v>
+        <v>46072</v>
       </c>
       <c r="AI38" s="18" t="n">
-        <v>46072</v>
+        <v>59323</v>
       </c>
       <c r="AJ38" s="18" t="n">
-        <v>59323</v>
+        <v>100137</v>
       </c>
       <c r="AK38" s="18" t="n">
-        <v>100137</v>
+        <v>87708</v>
       </c>
       <c r="AL38" s="18" t="n">
-        <v>87708</v>
+        <v>69735</v>
       </c>
       <c r="AM38" s="18" t="n">
-        <v>69735</v>
+        <v>76524</v>
       </c>
       <c r="AN38" s="18" t="n">
-        <v>76524</v>
+        <v>118906</v>
       </c>
       <c r="AO38" s="18" t="n">
-        <v>118906</v>
+        <v>77078</v>
       </c>
       <c r="AP38" s="18" t="n">
-        <v>77078</v>
+        <v>99092</v>
       </c>
       <c r="AQ38" s="18" t="n">
-        <v>99092</v>
+        <v>70017</v>
       </c>
       <c r="AR38" s="18" t="n">
-        <v>70017</v>
+        <v>105198</v>
       </c>
       <c r="AS38" s="18" t="n">
-        <v>105198</v>
+        <v>50176</v>
       </c>
       <c r="AT38" s="18" t="n">
-        <v>50176</v>
+        <v>69126</v>
       </c>
       <c r="AU38" s="18" t="n">
-        <v>69126</v>
+        <v>97065</v>
       </c>
       <c r="AV38" s="18" t="n">
-        <v>97065</v>
+        <v>121399</v>
       </c>
       <c r="AW38" s="18" t="n">
-        <v>121399</v>
+        <v>81085</v>
       </c>
       <c r="AX38" s="18" t="n">
-        <v>81085</v>
+        <v>94393</v>
       </c>
       <c r="AY38" s="18" t="n">
-        <v>94393</v>
+        <v>43767</v>
       </c>
       <c r="AZ38" s="18" t="n">
-        <v>43767</v>
+        <v>14999</v>
       </c>
       <c r="BA38" s="18" t="n">
-        <v>14999</v>
+        <v>93561</v>
       </c>
       <c r="BB38" s="18" t="n">
-        <v>93561</v>
+        <v>96142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6968,11 +6968,11 @@
       <c r="T40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U40" s="13" t="s">
-        <v>58</v>
+      <c r="U40" s="13" t="n">
+        <v>1459</v>
       </c>
       <c r="V40" s="13" t="n">
-        <v>1459</v>
+        <v>0</v>
       </c>
       <c r="W40" s="13" t="n">
         <v>0</v>
@@ -6981,13 +6981,13 @@
         <v>0</v>
       </c>
       <c r="Y40" s="13" t="n">
-        <v>0</v>
+        <v>972</v>
       </c>
       <c r="Z40" s="13" t="n">
-        <v>972</v>
+        <v>1584</v>
       </c>
       <c r="AA40" s="13" t="n">
-        <v>1584</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="13" t="n">
         <v>0</v>
@@ -6998,8 +6998,8 @@
       <c r="AD40" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE40" s="13" t="n">
-        <v>0</v>
+      <c r="AE40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF40" s="13" t="s">
         <v>58</v>
@@ -7125,11 +7125,11 @@
       <c r="T41" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U41" s="18" t="s">
-        <v>58</v>
+      <c r="U41" s="18" t="n">
+        <v>1459</v>
       </c>
       <c r="V41" s="18" t="n">
-        <v>1459</v>
+        <v>0</v>
       </c>
       <c r="W41" s="18" t="n">
         <v>0</v>
@@ -7138,13 +7138,13 @@
         <v>0</v>
       </c>
       <c r="Y41" s="18" t="n">
-        <v>0</v>
+        <v>972</v>
       </c>
       <c r="Z41" s="18" t="n">
-        <v>972</v>
+        <v>1584</v>
       </c>
       <c r="AA41" s="18" t="n">
-        <v>1584</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="18" t="n">
         <v>0</v>
@@ -7339,8 +7339,8 @@
       <c r="T43" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U43" s="20" t="s">
-        <v>58</v>
+      <c r="U43" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V43" s="20" t="n">
         <v>0</v>
@@ -7485,10 +7485,10 @@
         <v>0</v>
       </c>
       <c r="Q44" s="18" t="n">
-        <v>0</v>
+        <v>94366</v>
       </c>
       <c r="R44" s="18" t="n">
-        <v>94366</v>
+        <v>0</v>
       </c>
       <c r="S44" s="18" t="n">
         <v>0</v>
@@ -7497,106 +7497,106 @@
         <v>0</v>
       </c>
       <c r="U44" s="18" t="n">
-        <v>0</v>
+        <v>110379</v>
       </c>
       <c r="V44" s="18" t="n">
-        <v>110379</v>
+        <v>104705</v>
       </c>
       <c r="W44" s="18" t="n">
-        <v>104705</v>
+        <v>128967</v>
       </c>
       <c r="X44" s="18" t="n">
-        <v>128967</v>
+        <v>111819</v>
       </c>
       <c r="Y44" s="18" t="n">
-        <v>111819</v>
+        <v>142342</v>
       </c>
       <c r="Z44" s="18" t="n">
-        <v>142342</v>
+        <v>125699</v>
       </c>
       <c r="AA44" s="18" t="n">
-        <v>125699</v>
+        <v>159301</v>
       </c>
       <c r="AB44" s="18" t="n">
-        <v>159301</v>
+        <v>160560</v>
       </c>
       <c r="AC44" s="18" t="n">
-        <v>160560</v>
+        <v>139442</v>
       </c>
       <c r="AD44" s="18" t="n">
-        <v>139442</v>
+        <v>95804</v>
       </c>
       <c r="AE44" s="18" t="n">
-        <v>95804</v>
+        <v>181598</v>
       </c>
       <c r="AF44" s="18" t="n">
-        <v>181598</v>
+        <v>136774</v>
       </c>
       <c r="AG44" s="18" t="n">
-        <v>136774</v>
+        <v>33673</v>
       </c>
       <c r="AH44" s="18" t="n">
-        <v>33673</v>
+        <v>59697</v>
       </c>
       <c r="AI44" s="18" t="n">
-        <v>59697</v>
+        <v>99103</v>
       </c>
       <c r="AJ44" s="18" t="n">
-        <v>99103</v>
+        <v>148293</v>
       </c>
       <c r="AK44" s="18" t="n">
-        <v>148293</v>
+        <v>124348</v>
       </c>
       <c r="AL44" s="18" t="n">
-        <v>124348</v>
+        <v>118672</v>
       </c>
       <c r="AM44" s="18" t="n">
-        <v>118672</v>
+        <v>127637</v>
       </c>
       <c r="AN44" s="18" t="n">
-        <v>127637</v>
+        <v>152068</v>
       </c>
       <c r="AO44" s="18" t="n">
-        <v>152068</v>
+        <v>141014</v>
       </c>
       <c r="AP44" s="18" t="n">
-        <v>141014</v>
+        <v>160669</v>
       </c>
       <c r="AQ44" s="18" t="n">
-        <v>160669</v>
+        <v>88599</v>
       </c>
       <c r="AR44" s="18" t="n">
-        <v>88599</v>
+        <v>170283</v>
       </c>
       <c r="AS44" s="18" t="n">
-        <v>170283</v>
+        <v>129163</v>
       </c>
       <c r="AT44" s="18" t="n">
-        <v>129163</v>
+        <v>121842</v>
       </c>
       <c r="AU44" s="18" t="n">
-        <v>121842</v>
+        <v>144280</v>
       </c>
       <c r="AV44" s="18" t="n">
-        <v>144280</v>
+        <v>172019</v>
       </c>
       <c r="AW44" s="18" t="n">
-        <v>172019</v>
+        <v>123094</v>
       </c>
       <c r="AX44" s="18" t="n">
-        <v>123094</v>
+        <v>122335</v>
       </c>
       <c r="AY44" s="18" t="n">
-        <v>122335</v>
+        <v>102191</v>
       </c>
       <c r="AZ44" s="18" t="n">
-        <v>102191</v>
+        <v>66626</v>
       </c>
       <c r="BA44" s="18" t="n">
-        <v>66626</v>
+        <v>161736</v>
       </c>
       <c r="BB44" s="18" t="n">
-        <v>161736</v>
+        <v>154371</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8077,119 +8077,119 @@
       <c r="P51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R51" s="13" t="n">
+      <c r="Q51" s="13" t="n">
         <v>4747333</v>
       </c>
+      <c r="R51" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="S51" s="13" t="s">
         <v>58</v>
       </c>
       <c r="T51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U51" s="13" t="s">
-        <v>58</v>
+      <c r="U51" s="13" t="n">
+        <v>1841608</v>
       </c>
       <c r="V51" s="13" t="n">
-        <v>1841608</v>
+        <v>2646463</v>
       </c>
       <c r="W51" s="13" t="n">
-        <v>2646463</v>
+        <v>4500156</v>
       </c>
       <c r="X51" s="13" t="n">
-        <v>4500156</v>
+        <v>5488918</v>
       </c>
       <c r="Y51" s="13" t="n">
-        <v>5488918</v>
+        <v>5631253</v>
       </c>
       <c r="Z51" s="13" t="n">
-        <v>5631253</v>
+        <v>2828366</v>
       </c>
       <c r="AA51" s="13" t="n">
-        <v>2828366</v>
+        <v>6178870</v>
       </c>
       <c r="AB51" s="13" t="n">
-        <v>6178870</v>
+        <v>6280862</v>
       </c>
       <c r="AC51" s="13" t="n">
-        <v>6280862</v>
+        <v>4826744</v>
       </c>
       <c r="AD51" s="13" t="n">
-        <v>4826744</v>
+        <v>4807411</v>
       </c>
       <c r="AE51" s="13" t="n">
-        <v>4807411</v>
+        <v>6163833</v>
       </c>
       <c r="AF51" s="13" t="n">
-        <v>6163833</v>
+        <v>5255930</v>
       </c>
       <c r="AG51" s="13" t="n">
-        <v>5255930</v>
+        <v>624438</v>
       </c>
       <c r="AH51" s="13" t="n">
-        <v>624438</v>
+        <v>1423577</v>
       </c>
       <c r="AI51" s="13" t="n">
-        <v>1423577</v>
+        <v>5535048</v>
       </c>
       <c r="AJ51" s="13" t="n">
-        <v>5535048</v>
+        <v>6329495</v>
       </c>
       <c r="AK51" s="13" t="n">
-        <v>6329495</v>
+        <v>4797771</v>
       </c>
       <c r="AL51" s="13" t="n">
-        <v>4797771</v>
+        <v>6534273</v>
       </c>
       <c r="AM51" s="13" t="n">
-        <v>6534273</v>
+        <v>6303351</v>
       </c>
       <c r="AN51" s="13" t="n">
-        <v>6303351</v>
+        <v>4214986</v>
       </c>
       <c r="AO51" s="13" t="n">
-        <v>4214986</v>
+        <v>8350853</v>
       </c>
       <c r="AP51" s="13" t="n">
-        <v>8350853</v>
+        <v>8911816</v>
       </c>
       <c r="AQ51" s="13" t="n">
-        <v>8911816</v>
+        <v>2781629</v>
       </c>
       <c r="AR51" s="13" t="n">
-        <v>2781629</v>
+        <v>9518808</v>
       </c>
       <c r="AS51" s="13" t="n">
-        <v>9518808</v>
+        <v>10890149</v>
       </c>
       <c r="AT51" s="13" t="n">
-        <v>10890149</v>
+        <v>6843884</v>
       </c>
       <c r="AU51" s="13" t="n">
-        <v>6843884</v>
+        <v>5937182</v>
       </c>
       <c r="AV51" s="13" t="n">
-        <v>5937182</v>
+        <v>6452444</v>
       </c>
       <c r="AW51" s="13" t="n">
-        <v>6452444</v>
+        <v>5411202</v>
       </c>
       <c r="AX51" s="13" t="n">
-        <v>5411202</v>
+        <v>3746714</v>
       </c>
       <c r="AY51" s="13" t="n">
-        <v>3746714</v>
+        <v>8290335</v>
       </c>
       <c r="AZ51" s="13" t="n">
-        <v>8290335</v>
+        <v>7863868</v>
       </c>
       <c r="BA51" s="13" t="n">
-        <v>7863868</v>
+        <v>12320679</v>
       </c>
       <c r="BB51" s="13" t="n">
-        <v>12320679</v>
+        <v>12350753</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8236,11 +8236,11 @@
       <c r="P52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Q52" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R52" s="16" t="n">
-        <v>0</v>
+      <c r="Q52" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="S52" s="16" t="s">
         <v>58</v>
@@ -8248,17 +8248,17 @@
       <c r="T52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U52" s="16" t="s">
-        <v>58</v>
+      <c r="U52" s="16" t="n">
+        <v>380461</v>
       </c>
       <c r="V52" s="16" t="n">
-        <v>380461</v>
+        <v>186281</v>
       </c>
       <c r="W52" s="16" t="n">
-        <v>186281</v>
+        <v>37965</v>
       </c>
       <c r="X52" s="16" t="n">
-        <v>37965</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="16" t="n">
         <v>0</v>
@@ -8288,10 +8288,10 @@
         <v>0</v>
       </c>
       <c r="AH52" s="16" t="n">
-        <v>0</v>
+        <v>254801</v>
       </c>
       <c r="AI52" s="16" t="n">
-        <v>254801</v>
+        <v>0</v>
       </c>
       <c r="AJ52" s="16" t="n">
         <v>0</v>
@@ -8395,11 +8395,11 @@
       <c r="P53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R53" s="13" t="n">
+      <c r="Q53" s="13" t="n">
         <v>7485</v>
+      </c>
+      <c r="R53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="S53" s="13" t="s">
         <v>58</v>
@@ -8553,10 +8553,10 @@
         <v>0</v>
       </c>
       <c r="Q54" s="18" t="n">
-        <v>0</v>
+        <v>4754818</v>
       </c>
       <c r="R54" s="18" t="n">
-        <v>4754818</v>
+        <v>0</v>
       </c>
       <c r="S54" s="18" t="n">
         <v>0</v>
@@ -8565,106 +8565,106 @@
         <v>0</v>
       </c>
       <c r="U54" s="18" t="n">
-        <v>0</v>
+        <v>2222069</v>
       </c>
       <c r="V54" s="18" t="n">
-        <v>2222069</v>
+        <v>2832744</v>
       </c>
       <c r="W54" s="18" t="n">
-        <v>2832744</v>
+        <v>4538121</v>
       </c>
       <c r="X54" s="18" t="n">
-        <v>4538121</v>
+        <v>5488918</v>
       </c>
       <c r="Y54" s="18" t="n">
-        <v>5488918</v>
+        <v>5631253</v>
       </c>
       <c r="Z54" s="18" t="n">
-        <v>5631253</v>
+        <v>2828366</v>
       </c>
       <c r="AA54" s="18" t="n">
-        <v>2828366</v>
+        <v>6178870</v>
       </c>
       <c r="AB54" s="18" t="n">
-        <v>6178870</v>
+        <v>6280862</v>
       </c>
       <c r="AC54" s="18" t="n">
-        <v>6280862</v>
+        <v>4826744</v>
       </c>
       <c r="AD54" s="18" t="n">
-        <v>4826744</v>
+        <v>4807411</v>
       </c>
       <c r="AE54" s="18" t="n">
-        <v>4807411</v>
+        <v>6163833</v>
       </c>
       <c r="AF54" s="18" t="n">
-        <v>6163833</v>
+        <v>5255930</v>
       </c>
       <c r="AG54" s="18" t="n">
-        <v>5255930</v>
+        <v>624438</v>
       </c>
       <c r="AH54" s="18" t="n">
-        <v>624438</v>
+        <v>1678378</v>
       </c>
       <c r="AI54" s="18" t="n">
-        <v>1678378</v>
+        <v>5535048</v>
       </c>
       <c r="AJ54" s="18" t="n">
-        <v>5535048</v>
+        <v>6329495</v>
       </c>
       <c r="AK54" s="18" t="n">
-        <v>6329495</v>
+        <v>4797771</v>
       </c>
       <c r="AL54" s="18" t="n">
-        <v>4797771</v>
+        <v>6534273</v>
       </c>
       <c r="AM54" s="18" t="n">
-        <v>6534273</v>
+        <v>6303351</v>
       </c>
       <c r="AN54" s="18" t="n">
-        <v>6303351</v>
+        <v>4214986</v>
       </c>
       <c r="AO54" s="18" t="n">
-        <v>4214986</v>
+        <v>8350853</v>
       </c>
       <c r="AP54" s="18" t="n">
-        <v>8350853</v>
+        <v>8911816</v>
       </c>
       <c r="AQ54" s="18" t="n">
-        <v>8911816</v>
+        <v>2781629</v>
       </c>
       <c r="AR54" s="18" t="n">
-        <v>2781629</v>
+        <v>9518808</v>
       </c>
       <c r="AS54" s="18" t="n">
-        <v>9518808</v>
+        <v>10890149</v>
       </c>
       <c r="AT54" s="18" t="n">
-        <v>10890149</v>
+        <v>6843884</v>
       </c>
       <c r="AU54" s="18" t="n">
-        <v>6843884</v>
+        <v>5937182</v>
       </c>
       <c r="AV54" s="18" t="n">
-        <v>5937182</v>
+        <v>6452444</v>
       </c>
       <c r="AW54" s="18" t="n">
-        <v>6452444</v>
+        <v>5411202</v>
       </c>
       <c r="AX54" s="18" t="n">
-        <v>5411202</v>
+        <v>3746714</v>
       </c>
       <c r="AY54" s="18" t="n">
-        <v>3746714</v>
+        <v>8290335</v>
       </c>
       <c r="AZ54" s="18" t="n">
-        <v>8290335</v>
+        <v>7863868</v>
       </c>
       <c r="BA54" s="18" t="n">
-        <v>7863868</v>
+        <v>12320679</v>
       </c>
       <c r="BB54" s="18" t="n">
-        <v>12320679</v>
+        <v>12350753</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8768,11 +8768,11 @@
       <c r="P56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R56" s="13" t="n">
-        <v>0</v>
+      <c r="Q56" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="S56" s="13" t="s">
         <v>58</v>
@@ -8780,107 +8780,107 @@
       <c r="T56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U56" s="13" t="s">
-        <v>58</v>
+      <c r="U56" s="13" t="n">
+        <v>5216581</v>
       </c>
       <c r="V56" s="13" t="n">
-        <v>5216581</v>
+        <v>5533204</v>
       </c>
       <c r="W56" s="13" t="n">
-        <v>5533204</v>
+        <v>7444093</v>
       </c>
       <c r="X56" s="13" t="n">
-        <v>7444093</v>
+        <v>6700533</v>
       </c>
       <c r="Y56" s="13" t="n">
-        <v>6700533</v>
+        <v>8655875</v>
       </c>
       <c r="Z56" s="13" t="n">
-        <v>8655875</v>
+        <v>10267117</v>
       </c>
       <c r="AA56" s="13" t="n">
-        <v>10267117</v>
+        <v>10186667</v>
       </c>
       <c r="AB56" s="13" t="n">
-        <v>10186667</v>
+        <v>12191312</v>
       </c>
       <c r="AC56" s="13" t="n">
-        <v>12191312</v>
+        <v>11405431</v>
       </c>
       <c r="AD56" s="13" t="n">
-        <v>11405431</v>
+        <v>6185899</v>
       </c>
       <c r="AE56" s="13" t="n">
-        <v>6185899</v>
+        <v>15394966</v>
       </c>
       <c r="AF56" s="13" t="n">
-        <v>15394966</v>
+        <v>12107999</v>
       </c>
       <c r="AG56" s="13" t="n">
-        <v>12107999</v>
+        <v>4191953</v>
       </c>
       <c r="AH56" s="13" t="n">
-        <v>4191953</v>
+        <v>6370674</v>
       </c>
       <c r="AI56" s="13" t="n">
-        <v>6370674</v>
+        <v>8469325</v>
       </c>
       <c r="AJ56" s="13" t="n">
-        <v>8469325</v>
+        <v>14837839</v>
       </c>
       <c r="AK56" s="13" t="n">
-        <v>14837839</v>
+        <v>13040731</v>
       </c>
       <c r="AL56" s="13" t="n">
-        <v>13040731</v>
+        <v>10106665</v>
       </c>
       <c r="AM56" s="13" t="n">
-        <v>10106665</v>
+        <v>10683794</v>
       </c>
       <c r="AN56" s="13" t="n">
-        <v>10683794</v>
+        <v>15629055</v>
       </c>
       <c r="AO56" s="13" t="n">
-        <v>15629055</v>
+        <v>10399453</v>
       </c>
       <c r="AP56" s="13" t="n">
-        <v>10399453</v>
+        <v>14067689</v>
       </c>
       <c r="AQ56" s="13" t="n">
-        <v>14067689</v>
+        <v>11673829</v>
       </c>
       <c r="AR56" s="13" t="n">
-        <v>11673829</v>
+        <v>16156448</v>
       </c>
       <c r="AS56" s="13" t="n">
-        <v>16156448</v>
+        <v>7249744</v>
       </c>
       <c r="AT56" s="13" t="n">
-        <v>7249744</v>
+        <v>9991397</v>
       </c>
       <c r="AU56" s="13" t="n">
-        <v>9991397</v>
+        <v>12460983</v>
       </c>
       <c r="AV56" s="13" t="n">
-        <v>12460983</v>
+        <v>15439613</v>
       </c>
       <c r="AW56" s="13" t="n">
-        <v>15439613</v>
+        <v>10728741</v>
       </c>
       <c r="AX56" s="13" t="n">
-        <v>10728741</v>
+        <v>13154198</v>
       </c>
       <c r="AY56" s="13" t="n">
-        <v>13154198</v>
+        <v>7139617</v>
       </c>
       <c r="AZ56" s="13" t="n">
-        <v>7139617</v>
+        <v>2571697</v>
       </c>
       <c r="BA56" s="13" t="n">
-        <v>2571697</v>
+        <v>16956580</v>
       </c>
       <c r="BB56" s="13" t="n">
-        <v>16956580</v>
+        <v>19962259</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8927,11 +8927,11 @@
       <c r="P57" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Q57" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R57" s="16" t="n">
-        <v>0</v>
+      <c r="Q57" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="S57" s="16" t="s">
         <v>58</v>
@@ -8939,8 +8939,8 @@
       <c r="T57" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U57" s="16" t="s">
-        <v>58</v>
+      <c r="U57" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V57" s="16" t="n">
         <v>0</v>
@@ -8952,10 +8952,10 @@
         <v>0</v>
       </c>
       <c r="Y57" s="16" t="n">
-        <v>0</v>
+        <v>233345</v>
       </c>
       <c r="Z57" s="16" t="n">
-        <v>233345</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="16" t="n">
         <v>0</v>
@@ -9002,8 +9002,8 @@
       <c r="AO57" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP57" s="16" t="n">
-        <v>0</v>
+      <c r="AP57" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ57" s="16" t="s">
         <v>58</v>
@@ -9086,11 +9086,11 @@
       <c r="P58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R58" s="13" t="n">
-        <v>0</v>
+      <c r="Q58" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="S58" s="13" t="s">
         <v>58</v>
@@ -9256,106 +9256,106 @@
         <v>0</v>
       </c>
       <c r="U59" s="18" t="n">
-        <v>0</v>
+        <v>5216581</v>
       </c>
       <c r="V59" s="18" t="n">
-        <v>5216581</v>
+        <v>5533204</v>
       </c>
       <c r="W59" s="18" t="n">
-        <v>5533204</v>
+        <v>7444093</v>
       </c>
       <c r="X59" s="18" t="n">
-        <v>7444093</v>
+        <v>6700533</v>
       </c>
       <c r="Y59" s="18" t="n">
-        <v>6700533</v>
+        <v>8889220</v>
       </c>
       <c r="Z59" s="18" t="n">
-        <v>8889220</v>
+        <v>10267117</v>
       </c>
       <c r="AA59" s="18" t="n">
-        <v>10267117</v>
+        <v>10186667</v>
       </c>
       <c r="AB59" s="18" t="n">
-        <v>10186667</v>
+        <v>12191312</v>
       </c>
       <c r="AC59" s="18" t="n">
-        <v>12191312</v>
+        <v>11405431</v>
       </c>
       <c r="AD59" s="18" t="n">
-        <v>11405431</v>
+        <v>6185899</v>
       </c>
       <c r="AE59" s="18" t="n">
-        <v>6185899</v>
+        <v>15394966</v>
       </c>
       <c r="AF59" s="18" t="n">
-        <v>15394966</v>
+        <v>12107999</v>
       </c>
       <c r="AG59" s="18" t="n">
-        <v>12107999</v>
+        <v>4191953</v>
       </c>
       <c r="AH59" s="18" t="n">
-        <v>4191953</v>
+        <v>6370674</v>
       </c>
       <c r="AI59" s="18" t="n">
-        <v>6370674</v>
+        <v>8469325</v>
       </c>
       <c r="AJ59" s="18" t="n">
-        <v>8469325</v>
+        <v>14837839</v>
       </c>
       <c r="AK59" s="18" t="n">
-        <v>14837839</v>
+        <v>13040731</v>
       </c>
       <c r="AL59" s="18" t="n">
-        <v>13040731</v>
+        <v>10106665</v>
       </c>
       <c r="AM59" s="18" t="n">
-        <v>10106665</v>
+        <v>10683794</v>
       </c>
       <c r="AN59" s="18" t="n">
-        <v>10683794</v>
+        <v>15629055</v>
       </c>
       <c r="AO59" s="18" t="n">
-        <v>15629055</v>
+        <v>10399453</v>
       </c>
       <c r="AP59" s="18" t="n">
-        <v>10399453</v>
+        <v>14067689</v>
       </c>
       <c r="AQ59" s="18" t="n">
-        <v>14067689</v>
+        <v>11673829</v>
       </c>
       <c r="AR59" s="18" t="n">
-        <v>11673829</v>
+        <v>16156448</v>
       </c>
       <c r="AS59" s="18" t="n">
-        <v>16156448</v>
+        <v>7249744</v>
       </c>
       <c r="AT59" s="18" t="n">
-        <v>7249744</v>
+        <v>9991397</v>
       </c>
       <c r="AU59" s="18" t="n">
-        <v>9991397</v>
+        <v>12460983</v>
       </c>
       <c r="AV59" s="18" t="n">
-        <v>12460983</v>
+        <v>15439613</v>
       </c>
       <c r="AW59" s="18" t="n">
-        <v>15439613</v>
+        <v>10728741</v>
       </c>
       <c r="AX59" s="18" t="n">
-        <v>10728741</v>
+        <v>13154198</v>
       </c>
       <c r="AY59" s="18" t="n">
-        <v>13154198</v>
+        <v>7139617</v>
       </c>
       <c r="AZ59" s="18" t="n">
-        <v>7139617</v>
+        <v>2571697</v>
       </c>
       <c r="BA59" s="18" t="n">
-        <v>2571697</v>
+        <v>16956580</v>
       </c>
       <c r="BB59" s="18" t="n">
-        <v>16956580</v>
+        <v>19962259</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9471,11 +9471,11 @@
       <c r="T61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U61" s="13" t="s">
-        <v>58</v>
+      <c r="U61" s="13" t="n">
+        <v>6785</v>
       </c>
       <c r="V61" s="13" t="n">
-        <v>6785</v>
+        <v>0</v>
       </c>
       <c r="W61" s="13" t="n">
         <v>0</v>
@@ -9484,13 +9484,13 @@
         <v>0</v>
       </c>
       <c r="Y61" s="13" t="n">
-        <v>0</v>
+        <v>3936</v>
       </c>
       <c r="Z61" s="13" t="n">
-        <v>3936</v>
+        <v>6416</v>
       </c>
       <c r="AA61" s="13" t="n">
-        <v>6416</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="13" t="n">
         <v>0</v>
@@ -9534,8 +9534,8 @@
       <c r="AO61" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP61" s="13" t="n">
-        <v>0</v>
+      <c r="AP61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ61" s="13" t="s">
         <v>58</v>
@@ -9630,11 +9630,11 @@
       <c r="T62" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U62" s="18" t="s">
-        <v>58</v>
+      <c r="U62" s="23" t="n">
+        <v>6785</v>
       </c>
       <c r="V62" s="23" t="n">
-        <v>6785</v>
+        <v>0</v>
       </c>
       <c r="W62" s="23" t="n">
         <v>0</v>
@@ -9643,13 +9643,13 @@
         <v>0</v>
       </c>
       <c r="Y62" s="23" t="n">
-        <v>0</v>
+        <v>3936</v>
       </c>
       <c r="Z62" s="23" t="n">
-        <v>3936</v>
+        <v>6416</v>
       </c>
       <c r="AA62" s="23" t="n">
-        <v>6416</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="23" t="n">
         <v>0</v>
@@ -9846,8 +9846,8 @@
       <c r="T64" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U64" s="20" t="s">
-        <v>58</v>
+      <c r="U64" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="V64" s="24" t="n">
         <v>0</v>
@@ -10062,8 +10062,8 @@
       <c r="T66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U66" s="13" t="s">
-        <v>58</v>
+      <c r="U66" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V66" s="13" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="Q67" s="23" t="n">
-        <v>0</v>
+        <v>4754818</v>
       </c>
       <c r="R67" s="23" t="n">
-        <v>4754818</v>
+        <v>0</v>
       </c>
       <c r="S67" s="23" t="n">
         <v>0</v>
@@ -10220,106 +10220,106 @@
         <v>0</v>
       </c>
       <c r="U67" s="23" t="n">
-        <v>0</v>
+        <v>7445435</v>
       </c>
       <c r="V67" s="23" t="n">
-        <v>7445435</v>
+        <v>8365948</v>
       </c>
       <c r="W67" s="23" t="n">
-        <v>8365948</v>
+        <v>11982214</v>
       </c>
       <c r="X67" s="23" t="n">
-        <v>11982214</v>
+        <v>12189451</v>
       </c>
       <c r="Y67" s="23" t="n">
-        <v>12189451</v>
+        <v>14524409</v>
       </c>
       <c r="Z67" s="23" t="n">
-        <v>14524409</v>
+        <v>13101899</v>
       </c>
       <c r="AA67" s="23" t="n">
-        <v>13101899</v>
+        <v>16365537</v>
       </c>
       <c r="AB67" s="23" t="n">
-        <v>16365537</v>
+        <v>18472174</v>
       </c>
       <c r="AC67" s="23" t="n">
-        <v>18472174</v>
+        <v>16232175</v>
       </c>
       <c r="AD67" s="23" t="n">
-        <v>16232175</v>
+        <v>10993310</v>
       </c>
       <c r="AE67" s="23" t="n">
-        <v>10993310</v>
+        <v>21558799</v>
       </c>
       <c r="AF67" s="23" t="n">
-        <v>21558799</v>
+        <v>17363929</v>
       </c>
       <c r="AG67" s="23" t="n">
-        <v>17363929</v>
+        <v>4816391</v>
       </c>
       <c r="AH67" s="23" t="n">
-        <v>4816391</v>
+        <v>8049052</v>
       </c>
       <c r="AI67" s="23" t="n">
-        <v>8049052</v>
+        <v>14004373</v>
       </c>
       <c r="AJ67" s="23" t="n">
-        <v>14004373</v>
+        <v>21167334</v>
       </c>
       <c r="AK67" s="23" t="n">
-        <v>21167334</v>
+        <v>17838502</v>
       </c>
       <c r="AL67" s="23" t="n">
-        <v>17838502</v>
+        <v>16640938</v>
       </c>
       <c r="AM67" s="23" t="n">
-        <v>16640938</v>
+        <v>16987145</v>
       </c>
       <c r="AN67" s="23" t="n">
-        <v>16987145</v>
+        <v>19844041</v>
       </c>
       <c r="AO67" s="23" t="n">
-        <v>19844041</v>
+        <v>18750306</v>
       </c>
       <c r="AP67" s="23" t="n">
-        <v>18750306</v>
+        <v>22979505</v>
       </c>
       <c r="AQ67" s="23" t="n">
-        <v>22979505</v>
+        <v>14455458</v>
       </c>
       <c r="AR67" s="23" t="n">
-        <v>14455458</v>
+        <v>25675256</v>
       </c>
       <c r="AS67" s="23" t="n">
-        <v>25675256</v>
+        <v>18139893</v>
       </c>
       <c r="AT67" s="23" t="n">
-        <v>18139893</v>
+        <v>16835281</v>
       </c>
       <c r="AU67" s="23" t="n">
-        <v>16835281</v>
+        <v>18398165</v>
       </c>
       <c r="AV67" s="23" t="n">
-        <v>18398165</v>
+        <v>21892057</v>
       </c>
       <c r="AW67" s="23" t="n">
-        <v>21892057</v>
+        <v>16139943</v>
       </c>
       <c r="AX67" s="23" t="n">
-        <v>16139943</v>
+        <v>16900912</v>
       </c>
       <c r="AY67" s="23" t="n">
-        <v>16900912</v>
+        <v>15429952</v>
       </c>
       <c r="AZ67" s="23" t="n">
-        <v>15429952</v>
+        <v>10435565</v>
       </c>
       <c r="BA67" s="23" t="n">
-        <v>10435565</v>
+        <v>29277259</v>
       </c>
       <c r="BB67" s="23" t="n">
-        <v>29277259</v>
+        <v>32313012</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10800,119 +10800,119 @@
       <c r="P74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R74" s="13" t="n">
+      <c r="Q74" s="13" t="n">
         <v>51425370</v>
       </c>
+      <c r="R74" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="S74" s="13" t="s">
         <v>58</v>
       </c>
       <c r="T74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U74" s="13" t="s">
-        <v>58</v>
+      <c r="U74" s="13" t="n">
+        <v>64660932</v>
       </c>
       <c r="V74" s="13" t="n">
-        <v>64660932</v>
+        <v>81072910</v>
       </c>
       <c r="W74" s="13" t="n">
-        <v>81072910</v>
+        <v>79358033</v>
       </c>
       <c r="X74" s="13" t="n">
-        <v>79358033</v>
+        <v>94845832</v>
       </c>
       <c r="Y74" s="13" t="n">
-        <v>94845832</v>
+        <v>99678780</v>
       </c>
       <c r="Z74" s="13" t="n">
-        <v>99678780</v>
+        <v>96805490</v>
       </c>
       <c r="AA74" s="13" t="n">
-        <v>96805490</v>
+        <v>103555902</v>
       </c>
       <c r="AB74" s="13" t="n">
-        <v>103555902</v>
+        <v>108968962</v>
       </c>
       <c r="AC74" s="13" t="n">
-        <v>108968962</v>
+        <v>103287839</v>
       </c>
       <c r="AD74" s="13" t="n">
-        <v>103287839</v>
+        <v>104990522</v>
       </c>
       <c r="AE74" s="13" t="n">
-        <v>104990522</v>
+        <v>110942116</v>
       </c>
       <c r="AF74" s="13" t="n">
-        <v>110942116</v>
+        <v>121001220</v>
       </c>
       <c r="AG74" s="13" t="n">
-        <v>121001220</v>
+        <v>131488313</v>
       </c>
       <c r="AH74" s="13" t="n">
-        <v>131488313</v>
+        <v>133958502</v>
       </c>
       <c r="AI74" s="13" t="n">
-        <v>133958502</v>
+        <v>139141478</v>
       </c>
       <c r="AJ74" s="13" t="n">
-        <v>139141478</v>
+        <v>131437308</v>
       </c>
       <c r="AK74" s="13" t="n">
-        <v>131437308</v>
+        <v>130943532</v>
       </c>
       <c r="AL74" s="13" t="n">
-        <v>130943532</v>
+        <v>133524184</v>
       </c>
       <c r="AM74" s="13" t="n">
-        <v>133524184</v>
+        <v>123321875</v>
       </c>
       <c r="AN74" s="13" t="n">
-        <v>123321875</v>
+        <v>127102889</v>
       </c>
       <c r="AO74" s="13" t="n">
-        <v>127102889</v>
+        <v>130612691</v>
       </c>
       <c r="AP74" s="13" t="n">
-        <v>130612691</v>
+        <v>144726375</v>
       </c>
       <c r="AQ74" s="13" t="n">
-        <v>144726375</v>
+        <v>149694812</v>
       </c>
       <c r="AR74" s="13" t="n">
-        <v>149694812</v>
+        <v>146251947</v>
       </c>
       <c r="AS74" s="13" t="n">
-        <v>146251947</v>
+        <v>137872675</v>
       </c>
       <c r="AT74" s="13" t="n">
-        <v>137872675</v>
+        <v>129825556</v>
       </c>
       <c r="AU74" s="13" t="n">
-        <v>129825556</v>
+        <v>125747792</v>
       </c>
       <c r="AV74" s="13" t="n">
-        <v>125747792</v>
+        <v>127468273</v>
       </c>
       <c r="AW74" s="13" t="n">
-        <v>127468273</v>
+        <v>128810541</v>
       </c>
       <c r="AX74" s="13" t="n">
-        <v>128810541</v>
+        <v>134088970</v>
       </c>
       <c r="AY74" s="13" t="n">
-        <v>134088970</v>
+        <v>141899476</v>
       </c>
       <c r="AZ74" s="13" t="n">
-        <v>141899476</v>
+        <v>152320840</v>
       </c>
       <c r="BA74" s="13" t="n">
-        <v>152320840</v>
+        <v>180721364</v>
       </c>
       <c r="BB74" s="13" t="n">
-        <v>180721364</v>
+        <v>212106562</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10971,18 +10971,18 @@
       <c r="T75" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U75" s="16" t="s">
-        <v>58</v>
+      <c r="U75" s="16" t="n">
+        <v>29365622</v>
       </c>
       <c r="V75" s="16" t="n">
-        <v>29365622</v>
+        <v>28724904</v>
       </c>
       <c r="W75" s="16" t="n">
-        <v>28724904</v>
-      </c>
-      <c r="X75" s="16" t="n">
         <v>30059382</v>
       </c>
+      <c r="X75" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="Y75" s="16" t="s">
         <v>58</v>
       </c>
@@ -11010,11 +11010,11 @@
       <c r="AG75" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AH75" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI75" s="16" t="n">
+      <c r="AH75" s="16" t="n">
         <v>84990327</v>
+      </c>
+      <c r="AI75" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AJ75" s="16" t="s">
         <v>58</v>
@@ -11118,11 +11118,11 @@
       <c r="P76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R76" s="13" t="n">
+      <c r="Q76" s="13" t="n">
         <v>3649439</v>
+      </c>
+      <c r="R76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="S76" s="13" t="s">
         <v>58</v>
@@ -11346,107 +11346,107 @@
       <c r="T78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U78" s="13" t="s">
-        <v>58</v>
+      <c r="U78" s="13" t="n">
+        <v>77302150</v>
       </c>
       <c r="V78" s="13" t="n">
-        <v>77302150</v>
+        <v>84377205</v>
       </c>
       <c r="W78" s="13" t="n">
-        <v>84377205</v>
+        <v>104850811</v>
       </c>
       <c r="X78" s="13" t="n">
-        <v>104850811</v>
+        <v>124205850</v>
       </c>
       <c r="Y78" s="13" t="n">
-        <v>124205850</v>
+        <v>108366405</v>
       </c>
       <c r="Z78" s="13" t="n">
-        <v>108366405</v>
+        <v>108191079</v>
       </c>
       <c r="AA78" s="13" t="n">
-        <v>108191079</v>
+        <v>102240872</v>
       </c>
       <c r="AB78" s="13" t="n">
-        <v>102240872</v>
+        <v>118453105</v>
       </c>
       <c r="AC78" s="13" t="n">
-        <v>118453105</v>
+        <v>123021335</v>
       </c>
       <c r="AD78" s="13" t="n">
-        <v>123021335</v>
+        <v>123680876</v>
       </c>
       <c r="AE78" s="13" t="n">
-        <v>123680876</v>
+        <v>122144463</v>
       </c>
       <c r="AF78" s="13" t="n">
-        <v>122144463</v>
+        <v>129723464</v>
       </c>
       <c r="AG78" s="13" t="n">
-        <v>129723464</v>
+        <v>144929920</v>
       </c>
       <c r="AH78" s="13" t="n">
-        <v>144929920</v>
+        <v>138276480</v>
       </c>
       <c r="AI78" s="13" t="n">
-        <v>138276480</v>
+        <v>142766296</v>
       </c>
       <c r="AJ78" s="13" t="n">
-        <v>142766296</v>
+        <v>148175390</v>
       </c>
       <c r="AK78" s="13" t="n">
-        <v>148175390</v>
+        <v>148683484</v>
       </c>
       <c r="AL78" s="13" t="n">
-        <v>148683484</v>
+        <v>144929591</v>
       </c>
       <c r="AM78" s="13" t="n">
-        <v>144929591</v>
+        <v>139613638</v>
       </c>
       <c r="AN78" s="13" t="n">
-        <v>139613638</v>
+        <v>131440424</v>
       </c>
       <c r="AO78" s="13" t="n">
-        <v>131440424</v>
+        <v>134921158</v>
       </c>
       <c r="AP78" s="13" t="n">
-        <v>134921158</v>
+        <v>141965941</v>
       </c>
       <c r="AQ78" s="13" t="n">
-        <v>141965941</v>
+        <v>166728495</v>
       </c>
       <c r="AR78" s="13" t="n">
-        <v>166728495</v>
+        <v>153581323</v>
       </c>
       <c r="AS78" s="13" t="n">
-        <v>153581323</v>
+        <v>144486288</v>
       </c>
       <c r="AT78" s="13" t="n">
-        <v>144486288</v>
+        <v>144538914</v>
       </c>
       <c r="AU78" s="13" t="n">
-        <v>144538914</v>
+        <v>128377716</v>
       </c>
       <c r="AV78" s="13" t="n">
-        <v>128377716</v>
+        <v>127180726</v>
       </c>
       <c r="AW78" s="13" t="n">
-        <v>127180726</v>
+        <v>132314744</v>
       </c>
       <c r="AX78" s="13" t="n">
-        <v>132314744</v>
+        <v>139355651</v>
       </c>
       <c r="AY78" s="13" t="n">
-        <v>139355651</v>
+        <v>163127859</v>
       </c>
       <c r="AZ78" s="13" t="n">
-        <v>163127859</v>
+        <v>171457897</v>
       </c>
       <c r="BA78" s="13" t="n">
-        <v>171457897</v>
+        <v>181235558</v>
       </c>
       <c r="BB78" s="13" t="n">
-        <v>181235558</v>
+        <v>207633074</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11517,11 +11517,11 @@
       <c r="X79" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Y79" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z79" s="16" t="n">
+      <c r="Y79" s="16" t="n">
         <v>46669000</v>
+      </c>
+      <c r="Z79" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AA79" s="16" t="s">
         <v>58</v>
@@ -11721,11 +11721,11 @@
       <c r="T81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U81" s="13" t="s">
-        <v>58</v>
+      <c r="U81" s="13" t="n">
+        <v>4650446</v>
       </c>
       <c r="V81" s="13" t="n">
-        <v>4650446</v>
+        <v>0</v>
       </c>
       <c r="W81" s="13" t="n">
         <v>0</v>
@@ -11734,13 +11734,13 @@
         <v>0</v>
       </c>
       <c r="Y81" s="13" t="n">
-        <v>0</v>
+        <v>4049383</v>
       </c>
       <c r="Z81" s="13" t="n">
-        <v>4049383</v>
+        <v>4050505</v>
       </c>
       <c r="AA81" s="13" t="n">
-        <v>4050505</v>
+        <v>0</v>
       </c>
       <c r="AB81" s="13" t="n">
         <v>0</v>
@@ -11784,8 +11784,8 @@
       <c r="AO81" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP81" s="13" t="n">
-        <v>0</v>
+      <c r="AP81" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ81" s="13" t="s">
         <v>58</v>
